--- a/simfin/params/macro.xlsx
+++ b/simfin/params/macro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loulou/repos/simfin/simfin/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francois\git\simfin\simfin\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBB3CE-065A-3748-8B9C-6813D6579216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A5CC5-6ED5-4EB0-AC2D-2E8A6350C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="760" windowWidth="32600" windowHeight="19020" xr2:uid="{72A2CBB4-F3DA-E745-97CB-BB8EE53D9A78}"/>
+    <workbookView xWindow="8310" yWindow="1515" windowWidth="29280" windowHeight="17475" xr2:uid="{72A2CBB4-F3DA-E745-97CB-BB8EE53D9A78}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Y</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>real_assets</t>
+  </si>
+  <si>
+    <t>return_shares</t>
+  </si>
+  <si>
+    <t>fix_income</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -195,207 +204,16 @@
       <sheetName val="PIB_DEPENSES"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="A10">
-            <v>1981</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1982</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1983</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1984</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1985</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1986</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1987</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1988</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1989</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1990</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1991</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1992</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1993</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1994</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1995</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1996</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1997</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2003</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2006</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2007</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2008</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2009</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2011</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2018</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,7 +251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -539,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,15 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E1ED26-6AE0-7C4A-9E91-3303E8579D4F}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -713,8 +535,17 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>[1]PIB_DEPENSES!A10</f>
         <v>1981</v>
@@ -732,7 +563,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>[1]PIB_DEPENSES!A11</f>
         <v>1982</v>
@@ -750,7 +581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>[1]PIB_DEPENSES!A12</f>
         <v>1983</v>
@@ -768,7 +599,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>[1]PIB_DEPENSES!A13</f>
         <v>1984</v>
@@ -786,7 +617,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>[1]PIB_DEPENSES!A14</f>
         <v>1985</v>
@@ -804,7 +635,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>[1]PIB_DEPENSES!A15</f>
         <v>1986</v>
@@ -822,7 +653,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>[1]PIB_DEPENSES!A16</f>
         <v>1987</v>
@@ -840,7 +671,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>[1]PIB_DEPENSES!A17</f>
         <v>1988</v>
@@ -858,7 +689,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>[1]PIB_DEPENSES!A18</f>
         <v>1989</v>
@@ -876,7 +707,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>[1]PIB_DEPENSES!A19</f>
         <v>1990</v>
@@ -894,7 +725,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>[1]PIB_DEPENSES!A20</f>
         <v>1991</v>
@@ -912,7 +743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>[1]PIB_DEPENSES!A21</f>
         <v>1992</v>
@@ -930,7 +761,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>[1]PIB_DEPENSES!A22</f>
         <v>1993</v>
@@ -948,7 +779,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>[1]PIB_DEPENSES!A23</f>
         <v>1994</v>
@@ -966,7 +797,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>[1]PIB_DEPENSES!A24</f>
         <v>1995</v>
@@ -984,7 +815,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[1]PIB_DEPENSES!A25</f>
         <v>1996</v>
@@ -1002,7 +833,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>[1]PIB_DEPENSES!A26</f>
         <v>1997</v>
@@ -1020,7 +851,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>[1]PIB_DEPENSES!A27</f>
         <v>1998</v>
@@ -1038,7 +869,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>[1]PIB_DEPENSES!A28</f>
         <v>1999</v>
@@ -1056,7 +887,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>[1]PIB_DEPENSES!A29</f>
         <v>2000</v>
@@ -1074,7 +905,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>[1]PIB_DEPENSES!A30</f>
         <v>2001</v>
@@ -1092,7 +923,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>[1]PIB_DEPENSES!A31</f>
         <v>2002</v>
@@ -1110,7 +941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>[1]PIB_DEPENSES!A32</f>
         <v>2003</v>
@@ -1128,7 +959,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>[1]PIB_DEPENSES!A33</f>
         <v>2004</v>
@@ -1146,7 +977,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>[1]PIB_DEPENSES!A34</f>
         <v>2005</v>
@@ -1163,8 +994,17 @@
       <c r="E26">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>[1]PIB_DEPENSES!A35</f>
         <v>2006</v>
@@ -1181,8 +1021,17 @@
       <c r="E27">
         <v>108.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.04</v>
+      </c>
+      <c r="G27">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>[1]PIB_DEPENSES!A36</f>
         <v>2007</v>
@@ -1199,8 +1048,17 @@
       <c r="E28">
         <v>110.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.12</v>
+      </c>
+      <c r="H28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>[1]PIB_DEPENSES!A37</f>
         <v>2008</v>
@@ -1217,8 +1075,17 @@
       <c r="E29">
         <v>112.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="G29">
+        <v>-0.161</v>
+      </c>
+      <c r="H29">
+        <v>-0.371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>[1]PIB_DEPENSES!A38</f>
         <v>2009</v>
@@ -1235,8 +1102,17 @@
       <c r="E30">
         <v>113.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="G30">
+        <v>-0.158</v>
+      </c>
+      <c r="H30">
+        <v>0.27699999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>[1]PIB_DEPENSES!A39</f>
         <v>2010</v>
@@ -1253,8 +1129,17 @@
       <c r="E31">
         <v>114.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>[1]PIB_DEPENSES!A40</f>
         <v>2011</v>
@@ -1271,8 +1156,17 @@
       <c r="E32">
         <v>118.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H32">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>[1]PIB_DEPENSES!A41</f>
         <v>2012</v>
@@ -1289,8 +1183,17 @@
       <c r="E33">
         <v>120.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.111</v>
+      </c>
+      <c r="H33">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>[1]PIB_DEPENSES!A42</f>
         <v>2013</v>
@@ -1307,8 +1210,17 @@
       <c r="E34">
         <v>121.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.125</v>
+      </c>
+      <c r="H34">
+        <v>0.22899999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>[1]PIB_DEPENSES!A43</f>
         <v>2014</v>
@@ -1325,8 +1237,17 @@
       <c r="E35">
         <v>123.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.11</v>
+      </c>
+      <c r="H35">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>[1]PIB_DEPENSES!A44</f>
         <v>2015</v>
@@ -1343,8 +1264,17 @@
       <c r="E36">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.106</v>
+      </c>
+      <c r="H36">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>[1]PIB_DEPENSES!A45</f>
         <v>2016</v>
@@ -1361,8 +1291,17 @@
       <c r="E37">
         <v>125.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.106</v>
+      </c>
+      <c r="H37">
+        <v>0.10400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>[1]PIB_DEPENSES!A46</f>
         <v>2017</v>
@@ -1379,8 +1318,17 @@
       <c r="E38">
         <v>126.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G38">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>[1]PIB_DEPENSES!A47</f>
         <v>2018</v>
@@ -1397,8 +1345,17 @@
       <c r="E39">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.09</v>
+      </c>
+      <c r="H39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -1414,8 +1371,17 @@
       <c r="E40">
         <v>131.69999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.01</v>
+      </c>
+      <c r="H40">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1431,8 +1397,17 @@
       <c r="E41">
         <v>132.80000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0.09</v>
+      </c>
+      <c r="G41">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -1448,6 +1423,15 @@
       <c r="E42">
         <f>E41*(1.019)</f>
         <v>135.32319999999999</v>
+      </c>
+      <c r="F42">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G42">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.24600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1461,9 +1445,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
